--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8110,9 +8110,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE1ZOibYUo7v3EqEibpAVib5zUduwWSKE8KlrcPEibF1Qmg8O4uS2RUEko4xxYUGfFCe3RAhVjr82j8qaA/300</v>
+      </c>
+      <c r="B189" t="str">
+        <v>2024-05-24 19:58:00</v>
+      </c>
+      <c r="C189" t="str">
+        <v>0</v>
+      </c>
+      <c r="D189" t="str">
+        <v>0</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+      <c r="F189" t="str">
+        <v>1</v>
+      </c>
+      <c r="G189" t="str">
+        <v>3018206481_2650655319_1</v>
+      </c>
+      <c r="H189" t="str">
+        <v>2650655319</v>
+      </c>
+      <c r="I189" t="str">
+        <v>188</v>
+      </c>
+      <c r="J189" t="str">
+        <v>《打错了》王菲 - Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K189" t="str">
+        <v>0</v>
+      </c>
+      <c r="L189" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655319&amp;idx=1&amp;sn=4ac91be993dcc0249baa1fdcf8ab4694&amp;chksm=83d0b029b4a7393f5198a440f5e8cd2c2eec022941ce6211474643671b41f4b5a4ef4eed1d17#rd</v>
+      </c>
+      <c r="M189" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M188"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M189"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8151,9 +8151,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE1Os1ygjmkiaIcLUH1DyPWlZgqlRhlib4vuPc2B4gXJYP72t16vlcS714M5iah2DvY5fBbhW19R7JfTQ/300</v>
+      </c>
+      <c r="B190" t="str">
+        <v>2024-06-21 20:17:01</v>
+      </c>
+      <c r="C190" t="str">
+        <v>0</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <v>0</v>
+      </c>
+      <c r="F190" t="str">
+        <v>1</v>
+      </c>
+      <c r="G190" t="str">
+        <v>3018206481_2650655424_1</v>
+      </c>
+      <c r="H190" t="str">
+        <v>2650655424</v>
+      </c>
+      <c r="I190" t="str">
+        <v>189</v>
+      </c>
+      <c r="J190" t="str">
+        <v>《美丽的梭罗河》印尼民歌 - Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K190" t="str">
+        <v>0</v>
+      </c>
+      <c r="L190" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655424&amp;idx=1&amp;sn=9d2c1b7c4db625eeb20be8a6e60fa039&amp;chksm=83d0b0beb4a739a87218a5b14c318aac2012b8d858f8ff8afb2fc04f54e1bc442f007c972bbf#rd</v>
+      </c>
+      <c r="M190" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M189"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M190"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8192,9 +8192,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE19htGicj0bz9SRYwC9Yweia71dYaqXAh14cSbiabFtGUWlPjX60gY2UZGnVZGYAcRE8ALuZib9jyBiaiaA/300</v>
+      </c>
+      <c r="B191" t="str">
+        <v>2024-06-28 21:22:40</v>
+      </c>
+      <c r="C191" t="str">
+        <v>0</v>
+      </c>
+      <c r="D191" t="str">
+        <v>0</v>
+      </c>
+      <c r="E191" t="str">
+        <v>0</v>
+      </c>
+      <c r="F191" t="str">
+        <v>1</v>
+      </c>
+      <c r="G191" t="str">
+        <v>3018206481_2650655440_1</v>
+      </c>
+      <c r="H191" t="str">
+        <v>2650655440</v>
+      </c>
+      <c r="I191" t="str">
+        <v>190</v>
+      </c>
+      <c r="J191" t="str">
+        <v>《Pasilyo》 - Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K191" t="str">
+        <v>0</v>
+      </c>
+      <c r="L191" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655440&amp;idx=1&amp;sn=eff3192e3c76ba9c8db0a41761a5b341&amp;chksm=83d0b0aeb4a739b8cd19df0bf3f55ee8c40110d2ca0256743395af803d0bcf541f8f5a33dfef#rd</v>
+      </c>
+      <c r="M191" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M190"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M191"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8233,9 +8233,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE2ypiaJVlOSdsD7UGx4V1l9Vm2BaMv9rkbibUWfuW5l21seePJAOHiaUvibVu8HbYYYBrGTxNNc6VYB0w/300</v>
+      </c>
+      <c r="B192" t="str">
+        <v>2024-07-13 17:39:34</v>
+      </c>
+      <c r="C192" t="str">
+        <v>0</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>0</v>
+      </c>
+      <c r="F192" t="str">
+        <v>1</v>
+      </c>
+      <c r="G192" t="str">
+        <v>3018206481_2650655478_1</v>
+      </c>
+      <c r="H192" t="str">
+        <v>2650655478</v>
+      </c>
+      <c r="I192" t="str">
+        <v>191</v>
+      </c>
+      <c r="J192" t="str">
+        <v>方大同《麦恩莉》- Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K192" t="str">
+        <v>0</v>
+      </c>
+      <c r="L192" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655478&amp;idx=1&amp;sn=90f1f49bafff2f1b4bfd24393bc884d7&amp;chksm=83d0b088b4a7399e4e3169dadd4d429ac5912b30a0b69240bfa7c3c55c9912a29f9bdae0c9cb#rd</v>
+      </c>
+      <c r="M192" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M191"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M192"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8274,9 +8274,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE0gg9qG1a4tSzzLsXwHs8mxMnZ14jQFlflmnic6UFFwmbbXt9g6bnJrPwvoOKFvgd48H4ia3Q1s8KaQ/300</v>
+      </c>
+      <c r="B193" t="str">
+        <v>2024-08-09 20:11:14</v>
+      </c>
+      <c r="C193" t="str">
+        <v>0</v>
+      </c>
+      <c r="D193" t="str">
+        <v>0</v>
+      </c>
+      <c r="E193" t="str">
+        <v>0</v>
+      </c>
+      <c r="F193" t="str">
+        <v>1</v>
+      </c>
+      <c r="G193" t="str">
+        <v>3018206481_2650655533_1</v>
+      </c>
+      <c r="H193" t="str">
+        <v>2650655533</v>
+      </c>
+      <c r="I193" t="str">
+        <v>192</v>
+      </c>
+      <c r="J193" t="str">
+        <v>孟慧园《哈哈哈》- Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K193" t="str">
+        <v>0</v>
+      </c>
+      <c r="L193" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655533&amp;idx=1&amp;sn=6794b917439cb6b2ca9d40f29ea647d5&amp;chksm=83d0b153b4a738456ac449f944c14db191c5948b93bcdb2b9b3a4ac786b882a849be600c6cf2#rd</v>
+      </c>
+      <c r="M193" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M192"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M193"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8315,9 +8315,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE3tAEIn3ousaWibyBox8kjtE16JrWS0x4v9JpclULcmic93KhdqQQCfyj1VL0yl7eiaWYapASxppSnvw/300</v>
+      </c>
+      <c r="B194" t="str">
+        <v>2024-08-23 19:53:46</v>
+      </c>
+      <c r="C194" t="str">
+        <v>0</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <v>0</v>
+      </c>
+      <c r="F194" t="str">
+        <v>1</v>
+      </c>
+      <c r="G194" t="str">
+        <v>3018206481_2650655566_1</v>
+      </c>
+      <c r="H194" t="str">
+        <v>2650655566</v>
+      </c>
+      <c r="I194" t="str">
+        <v>193</v>
+      </c>
+      <c r="J194" t="str">
+        <v>~蘑菇蘑菇~《蘑菇浓汤》吉他教学 - Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K194" t="str">
+        <v>0</v>
+      </c>
+      <c r="L194" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655566&amp;idx=1&amp;sn=89167cb9585beed5fa8181bec1e4a137&amp;chksm=83d0b130b4a7382637594b1cf3f39e5cef06b846a0eecc4982e9c9ab2dce9c17f86633dd9761#rd</v>
+      </c>
+      <c r="M194" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M193"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M194"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8356,9 +8356,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE2iczf5MLPovGSGtR9TiaxXmZF4sxAzmibq8EnQ8UI2U6ibgicwBbeT5EkrcFuPaubRPHMrv9pg91HV6DA/300</v>
+      </c>
+      <c r="B195" t="str">
+        <v>2024-08-30 19:58:27</v>
+      </c>
+      <c r="C195" t="str">
+        <v>0</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <v>0</v>
+      </c>
+      <c r="F195" t="str">
+        <v>1</v>
+      </c>
+      <c r="G195" t="str">
+        <v>3018206481_2650655589_1</v>
+      </c>
+      <c r="H195" t="str">
+        <v>2650655589</v>
+      </c>
+      <c r="I195" t="str">
+        <v>194</v>
+      </c>
+      <c r="J195" t="str">
+        <v>周传雄《青花》吉他教学 - Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K195" t="str">
+        <v>0</v>
+      </c>
+      <c r="L195" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655589&amp;idx=1&amp;sn=917529ffcb19fe22b3ce597429784000&amp;chksm=83d0b11bb4a7380dce30b8c4244d5eeb72a360e26a202cd05e91f8721f78642bbb0fab5c4fa5#rd</v>
+      </c>
+      <c r="M195" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M194"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M195"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8397,9 +8397,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE0zc5aGzIoNLQ8uO9KUzBm6309cxNrb7o6LC5dmaGcOEr3kYnj4onTWQ8rCJGE9YHxStFVTBSohew/300</v>
+      </c>
+      <c r="B196" t="str">
+        <v>2024-09-13 19:55:00</v>
+      </c>
+      <c r="C196" t="str">
+        <v>0</v>
+      </c>
+      <c r="D196" t="str">
+        <v>0</v>
+      </c>
+      <c r="E196" t="str">
+        <v>0</v>
+      </c>
+      <c r="F196" t="str">
+        <v>1</v>
+      </c>
+      <c r="G196" t="str">
+        <v>3018206481_2650655616_1</v>
+      </c>
+      <c r="H196" t="str">
+        <v>2650655616</v>
+      </c>
+      <c r="I196" t="str">
+        <v>195</v>
+      </c>
+      <c r="J196" t="str">
+        <v>方大同《才二十三》- Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K196" t="str">
+        <v>0</v>
+      </c>
+      <c r="L196" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655616&amp;idx=1&amp;sn=de663732c874fc091cf2667fb3e48d33&amp;chksm=83d0b1feb4a738e8af312a8035c39c77a415e11b4c7d9821b2c3e632f6ddeb9e3b531b106fe7#rd</v>
+      </c>
+      <c r="M196" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M195"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M196"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8438,9 +8438,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE1yGu4x9B7blhx0uZcLamX66ajYbCPicg537NxOE2djBJicWV8Ju7ZgeXQvPDKNUhrxgMNaJWZzMoLw/300</v>
+      </c>
+      <c r="B197" t="str">
+        <v>2024-09-27 19:56:00</v>
+      </c>
+      <c r="C197" t="str">
+        <v>0</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
+        <v>0</v>
+      </c>
+      <c r="F197" t="str">
+        <v>1</v>
+      </c>
+      <c r="G197" t="str">
+        <v>3018206481_2650655643_1</v>
+      </c>
+      <c r="H197" t="str">
+        <v>2650655643</v>
+      </c>
+      <c r="I197" t="str">
+        <v>196</v>
+      </c>
+      <c r="J197" t="str">
+        <v>李宗盛《凡人歌》- Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K197" t="str">
+        <v>0</v>
+      </c>
+      <c r="L197" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655643&amp;idx=1&amp;sn=bb21faf6fe7d2893812ec8898b5b7196&amp;chksm=83d0b1e5b4a738f3453ad18b89c919c574e2dc616ad2ac6051ef349f22594019d7b1c8cc36c7#rd</v>
+      </c>
+      <c r="M197" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M196"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M197"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8479,9 +8479,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE0CxRVbA1kz5ZBIG9bGxzlgNXQzZznqcocXPg9wibFhNKb7fliaL9EcG8kK0GKYekTt1iaacsfHOjOnA/300</v>
+      </c>
+      <c r="B198" t="str">
+        <v>2024-10-11 19:58:00</v>
+      </c>
+      <c r="C198" t="str">
+        <v>0</v>
+      </c>
+      <c r="D198" t="str">
+        <v>0</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+      <c r="F198" t="str">
+        <v>1</v>
+      </c>
+      <c r="G198" t="str">
+        <v>3018206481_2650655667_1</v>
+      </c>
+      <c r="H198" t="str">
+        <v>2650655667</v>
+      </c>
+      <c r="I198" t="str">
+        <v>197</v>
+      </c>
+      <c r="J198" t="str">
+        <v>陈绮贞《沙发海》- Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K198" t="str">
+        <v>0</v>
+      </c>
+      <c r="L198" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655667&amp;idx=1&amp;sn=c7b914318f2e11f9c8302e5b9b6f96eb&amp;chksm=83d0b1cdb4a738dbcdbf8759c4eb8146f6345be865ab1b20b0ae1dbdf3a8e2958bd76b6e7a06#rd</v>
+      </c>
+      <c r="M198" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M197"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M198"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8520,9 +8520,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE2cKaqRuic1Flg1K4tq9FYB8pKLDOaANGP1d4MnIlVDpPJovL6Fn9ydBzedqqibIc9sJAZmVYEvlngw/300</v>
+      </c>
+      <c r="B199" t="str">
+        <v>2024-11-16 14:35:31</v>
+      </c>
+      <c r="C199" t="str">
+        <v>0</v>
+      </c>
+      <c r="D199" t="str">
+        <v>0</v>
+      </c>
+      <c r="E199" t="str">
+        <v>0</v>
+      </c>
+      <c r="F199" t="str">
+        <v>1</v>
+      </c>
+      <c r="G199" t="str">
+        <v>3018206481_2650655815_1</v>
+      </c>
+      <c r="H199" t="str">
+        <v>2650655815</v>
+      </c>
+      <c r="I199" t="str">
+        <v>198</v>
+      </c>
+      <c r="J199" t="str">
+        <v>王菲《乘客》- Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K199" t="str">
+        <v>0</v>
+      </c>
+      <c r="L199" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655815&amp;idx=1&amp;sn=f9b1cf5ab630e27198323193b4e72d33&amp;chksm=83d0b639b4a73f2f7a153988bc8be44a6bee0e8abd1c3bde9812aaf0943802011486d03a684b#rd</v>
+      </c>
+      <c r="M199" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M198"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M199"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/index.xlsx
+++ b/index.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8561,9 +8561,91 @@
         <v>0</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE11SwiaZjhK5wQkMcLwzNrbDIZUFiaWb5lh3SWLjiatEMHSbgjzJ616IUr3NcxaSJ384HuppdEVE4dibA/300</v>
+      </c>
+      <c r="B200" t="str">
+        <v>2024-11-22 21:21:41</v>
+      </c>
+      <c r="C200" t="str">
+        <v>0</v>
+      </c>
+      <c r="D200" t="str">
+        <v>0</v>
+      </c>
+      <c r="E200" t="str">
+        <v>0</v>
+      </c>
+      <c r="F200" t="str">
+        <v>1</v>
+      </c>
+      <c r="G200" t="str">
+        <v>3018206481_2650655832_1</v>
+      </c>
+      <c r="H200" t="str">
+        <v>2650655832</v>
+      </c>
+      <c r="I200" t="str">
+        <v>199</v>
+      </c>
+      <c r="J200" t="str">
+        <v>卢广仲《大人中》- Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K200" t="str">
+        <v>0</v>
+      </c>
+      <c r="L200" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655832&amp;idx=1&amp;sn=5d5d3bf6bf735f6d3025d06da416a6a1&amp;chksm=83d0b626b4a73f305cc7e4a6c23418b7114c2ad9cbd91d9f95f00b81e95418fb817230edbd8c#rd</v>
+      </c>
+      <c r="M200" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>https://mmbiz.qpic.cn/mmbiz_jpg/68JxwhxIxE3WZH2W06zKQz4bdvjXrRxzWibvdlCOzdm9ddoZJkIEvQTl3lbwPEzYyrgtBLQ8glcTCia8IzWAE7Fg/300</v>
+      </c>
+      <c r="B201" t="str">
+        <v>2024-11-29 21:01:33</v>
+      </c>
+      <c r="C201" t="str">
+        <v>0</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <v>0</v>
+      </c>
+      <c r="F201" t="str">
+        <v>1</v>
+      </c>
+      <c r="G201" t="str">
+        <v>3018206481_2650655850_1</v>
+      </c>
+      <c r="H201" t="str">
+        <v>2650655850</v>
+      </c>
+      <c r="I201" t="str">
+        <v>200</v>
+      </c>
+      <c r="J201" t="str">
+        <v>《同类》孙燕姿- Nancy吉他弹唱教学教程</v>
+      </c>
+      <c r="K201" t="str">
+        <v>0</v>
+      </c>
+      <c r="L201" t="str">
+        <v>http://mp.weixin.qq.com/s?__biz=MzAxODIwNjQ4MQ==&amp;mid=2650655850&amp;idx=1&amp;sn=59cde6b5e02497d8fb2290421e05c1f8&amp;chksm=83d0b614b4a73f0219895e87c9aa79b05146677351a577841423c5f7cfd29834de0dad879e38#rd</v>
+      </c>
+      <c r="M201" t="str">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M199"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M201"/>
   </ignoredErrors>
 </worksheet>
 </file>